--- a/example5_cor.xlsx
+++ b/example5_cor.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="280">
   <si>
     <t>label</t>
   </si>
@@ -434,6 +434,426 @@
   </si>
   <si>
     <t>x8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-2</t>
+  </si>
+  <si>
+    <t>C13D2-label-1-4</t>
+  </si>
+  <si>
+    <t>C13D2-label-2-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-1</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-3</t>
+  </si>
+  <si>
+    <t>C13D2-label-3-4</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>D2-label-4</t>
+  </si>
+  <si>
+    <t>D2-label-5</t>
+  </si>
+  <si>
+    <t>D2-label-6</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>blank_MeOH</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>blank_MeOH</t>
@@ -485,19 +905,19 @@
   <dimension ref="A1:X15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="14.37890625" customWidth="true"/>
-    <col min="10" max="10" width="18.48828125" customWidth="true"/>
-    <col min="11" max="11" width="18.48828125" customWidth="true"/>
-    <col min="12" max="12" width="8.82421875" customWidth="true"/>
-    <col min="13" max="13" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="15.140625" customWidth="true"/>
+    <col min="10" max="10" width="20" customWidth="true"/>
+    <col min="11" max="11" width="20" customWidth="true"/>
+    <col min="12" max="12" width="9.140625" customWidth="true"/>
+    <col min="13" max="13" width="14.5703125" customWidth="true"/>
     <col min="14" max="14" width="8.7109375" customWidth="true"/>
     <col min="15" max="15" width="10.7109375" customWidth="true"/>
     <col min="16" max="16" width="9.7109375" customWidth="true"/>
@@ -508,81 +928,81 @@
     <col min="21" max="21" width="9.7109375" customWidth="true"/>
     <col min="22" max="22" width="9.7109375" customWidth="true"/>
     <col min="23" max="23" width="9.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -606,19 +1026,19 @@
         <v>0.77384799999999998</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M2" s="0">
         <v>0.29099999999999998</v>
@@ -679,16 +1099,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M3" s="0">
         <v>0.29399999999999998</v>
@@ -749,16 +1169,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M4" s="0">
         <v>0.27200000000000002</v>
@@ -819,16 +1239,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M5" s="0">
         <v>0.26700000000000002</v>
@@ -889,16 +1309,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M6" s="0">
         <v>0.27700000000000002</v>
@@ -959,16 +1379,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M7" s="0">
         <v>0.29999999999999999</v>
@@ -1029,16 +1449,16 @@
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M8" s="0">
         <v>0.27200000000000002</v>
@@ -1099,16 +1519,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M9" s="0">
         <v>0.27700000000000002</v>
@@ -1169,16 +1589,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M10" s="0">
         <v>0.26000000000000001</v>
@@ -1239,16 +1659,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M11" s="0">
         <v>0.27800000000000002</v>
@@ -1309,16 +1729,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M12" s="0">
         <v>0.29799999999999999</v>
@@ -1379,16 +1799,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M13" s="0">
         <v>0.27900000000000003</v>
@@ -1449,16 +1869,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M14" s="0">
         <v>0.252</v>
@@ -1519,16 +1939,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M15" s="0">
         <v>0.316</v>
@@ -1576,19 +1996,19 @@
   <dimension ref="A1:X15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="14.37890625" customWidth="true"/>
-    <col min="10" max="10" width="18.48828125" customWidth="true"/>
-    <col min="11" max="11" width="18.48828125" customWidth="true"/>
-    <col min="12" max="12" width="8.82421875" customWidth="true"/>
-    <col min="13" max="13" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="15.140625" customWidth="true"/>
+    <col min="10" max="10" width="20" customWidth="true"/>
+    <col min="11" max="11" width="20" customWidth="true"/>
+    <col min="12" max="12" width="9.140625" customWidth="true"/>
+    <col min="13" max="13" width="14.5703125" customWidth="true"/>
     <col min="14" max="14" width="8.7109375" customWidth="true"/>
     <col min="15" max="15" width="10.7109375" customWidth="true"/>
     <col min="16" max="16" width="15.7109375" customWidth="true"/>
@@ -1604,76 +2024,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
@@ -1697,19 +2117,19 @@
         <v>0.77384799999999998</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M2" s="0">
         <v>0.29099999999999998</v>
@@ -1770,16 +2190,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M3" s="0">
         <v>0.29399999999999998</v>
@@ -1840,16 +2260,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M4" s="0">
         <v>0.27200000000000002</v>
@@ -1910,16 +2330,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M5" s="0">
         <v>0.26700000000000002</v>
@@ -1980,16 +2400,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M6" s="0">
         <v>0.27700000000000002</v>
@@ -2050,16 +2470,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M7" s="0">
         <v>0.29999999999999999</v>
@@ -2120,16 +2540,16 @@
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M8" s="0">
         <v>0.27200000000000002</v>
@@ -2190,16 +2610,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M9" s="0">
         <v>0.27700000000000002</v>
@@ -2260,16 +2680,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M10" s="0">
         <v>0.26000000000000001</v>
@@ -2330,16 +2750,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M11" s="0">
         <v>0.27800000000000002</v>
@@ -2400,16 +2820,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M12" s="0">
         <v>0.29799999999999999</v>
@@ -2470,16 +2890,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M13" s="0">
         <v>0.27900000000000003</v>
@@ -2540,16 +2960,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M14" s="0">
         <v>0.252</v>
@@ -2610,16 +3030,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="M15" s="0">
         <v>0.316</v>
@@ -2667,19 +3087,19 @@
   <dimension ref="A1:X15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="14.37890625" customWidth="true"/>
-    <col min="10" max="10" width="18.48828125" customWidth="true"/>
-    <col min="11" max="11" width="18.48828125" customWidth="true"/>
-    <col min="12" max="12" width="8.82421875" customWidth="true"/>
-    <col min="13" max="13" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="15.140625" customWidth="true"/>
+    <col min="10" max="10" width="20" customWidth="true"/>
+    <col min="11" max="11" width="20" customWidth="true"/>
+    <col min="12" max="12" width="9.140625" customWidth="true"/>
+    <col min="13" max="13" width="14.5703125" customWidth="true"/>
     <col min="14" max="14" width="8.7109375" customWidth="true"/>
     <col min="15" max="15" width="10.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
@@ -2690,81 +3110,81 @@
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>233</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>118</v>
+        <v>258</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>125</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
@@ -2788,19 +3208,19 @@
         <v>0.77384799999999998</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M2" s="0">
         <v>0.29099999999999998</v>
@@ -2861,16 +3281,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M3" s="0">
         <v>0.29399999999999998</v>
@@ -2931,16 +3351,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M4" s="0">
         <v>0.27200000000000002</v>
@@ -3001,16 +3421,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M5" s="0">
         <v>0.26700000000000002</v>
@@ -3071,16 +3491,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M6" s="0">
         <v>0.27700000000000002</v>
@@ -3141,16 +3561,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M7" s="0">
         <v>0.29999999999999999</v>
@@ -3211,16 +3631,16 @@
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M8" s="0">
         <v>0.27200000000000002</v>
@@ -3281,16 +3701,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M9" s="0">
         <v>0.27700000000000002</v>
@@ -3351,16 +3771,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M10" s="0">
         <v>0.26000000000000001</v>
@@ -3421,16 +3841,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M11" s="0">
         <v>0.27800000000000002</v>
@@ -3491,16 +3911,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M12" s="0">
         <v>0.29799999999999999</v>
@@ -3561,16 +3981,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M13" s="0">
         <v>0.27900000000000003</v>
@@ -3631,16 +4051,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M14" s="0">
         <v>0.252</v>
@@ -3701,16 +4121,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="M15" s="0">
         <v>0.316</v>
@@ -3758,56 +4178,56 @@
   <dimension ref="A1:L2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.93359375" customWidth="true"/>
-    <col min="2" max="2" width="6.046875" customWidth="true"/>
-    <col min="3" max="3" width="7.6015625" customWidth="true"/>
-    <col min="4" max="4" width="3.046875" customWidth="true"/>
-    <col min="5" max="5" width="3.046875" customWidth="true"/>
-    <col min="6" max="6" width="3.046875" customWidth="true"/>
-    <col min="7" max="7" width="3.046875" customWidth="true"/>
-    <col min="8" max="8" width="3.046875" customWidth="true"/>
-    <col min="9" max="9" width="3.046875" customWidth="true"/>
-    <col min="10" max="10" width="3.046875" customWidth="true"/>
-    <col min="11" max="11" width="3.046875" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="3" customWidth="true"/>
+    <col min="2" max="2" width="6.42578125" customWidth="true"/>
+    <col min="3" max="3" width="8.140625" customWidth="true"/>
+    <col min="4" max="4" width="2.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="2.140625" customWidth="true"/>
+    <col min="7" max="7" width="2.140625" customWidth="true"/>
+    <col min="8" max="8" width="2.140625" customWidth="true"/>
+    <col min="9" max="9" width="2.140625" customWidth="true"/>
+    <col min="10" max="10" width="2.140625" customWidth="true"/>
+    <col min="11" max="11" width="2.140625" customWidth="true"/>
+    <col min="12" max="12" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>139</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
@@ -3815,10 +4235,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="D2" s="0">
         <v>860450.3554662891</v>
